--- a/public/downloads/product_upload.xlsx
+++ b/public/downloads/product_upload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ekmatra\public\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521274A9-CF3E-4C31-80CA-72AF8D8C1944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750EB514-AF3A-406D-955F-03A81A2ECE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70E1FF9E-4614-4AEC-BB1E-42BC343E4F58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>http://ekmatra.in/product/168191451417316.png</t>
+  </si>
+  <si>
+    <t>specification</t>
+  </si>
+  <si>
+    <t>Dial Type:Square,Screen Type:IPS</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D18B06-EA8D-4AB8-B87F-67F942C2DE80}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,7 +469,7 @@
     <col min="5" max="5" width="47.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -494,8 +500,11 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -525,6 +534,9 @@
       </c>
       <c r="J2" t="s">
         <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
